--- a/[ML]_Project_EDAOutputs_Group33/Tables/Descriptive_Statistics_Numerical.xlsx
+++ b/[ML]_Project_EDAOutputs_Group33/Tables/Descriptive_Statistics_Numerical.xlsx
@@ -516,10 +516,10 @@
         <v>117</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.04057998007326515</v>
+        <v>-0.04</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.4254860373414626</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="3">
@@ -553,10 +553,10 @@
         <v>2828079</v>
       </c>
       <c r="J3" t="n">
-        <v>378.9792720672111</v>
+        <v>378.98</v>
       </c>
       <c r="K3" t="n">
-        <v>160021.0394837141</v>
+        <v>160021.04</v>
       </c>
     </row>
     <row r="4">
@@ -590,10 +590,10 @@
         <v>2018</v>
       </c>
       <c r="J4" t="n">
-        <v>-4.325518936569753</v>
+        <v>-4.33</v>
       </c>
       <c r="K4" t="n">
-        <v>16.73425817911194</v>
+        <v>16.73</v>
       </c>
     </row>
     <row r="5">
@@ -627,10 +627,10 @@
         <v>73</v>
       </c>
       <c r="J5" t="n">
-        <v>2.594615719121655</v>
+        <v>2.59</v>
       </c>
       <c r="K5" t="n">
-        <v>13.21382061495355</v>
+        <v>13.21</v>
       </c>
     </row>
     <row r="6">
@@ -664,10 +664,10 @@
         <v>92</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1828337601217862</v>
+        <v>0.18</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.489383310917082</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="7">
@@ -701,10 +701,10 @@
         <v>99</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.1301822958004472</v>
+        <v>-0.13</v>
       </c>
       <c r="K7" t="n">
-        <v>-1.025207333041206</v>
+        <v>-1.03</v>
       </c>
     </row>
     <row r="8">
@@ -738,10 +738,10 @@
         <v>91</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.03814939587830273</v>
+        <v>-0.04</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.655539059548508</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="9">
@@ -775,10 +775,10 @@
         <v>99</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.07529929200888667</v>
+        <v>-0.08</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4103836418862441</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="10">
@@ -812,10 +812,10 @@
         <v>6</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.003529432849922167</v>
+        <v>-0</v>
       </c>
       <c r="K10" t="n">
-        <v>-1.250324052592594</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="11">
@@ -849,10 +849,10 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.7414548596952124</v>
+        <v>-0.74</v>
       </c>
       <c r="K11" t="n">
-        <v>-1.45024974395261</v>
+        <v>-1.45</v>
       </c>
     </row>
     <row r="12">
@@ -886,10 +886,10 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>-1.078378146892873</v>
+        <v>-1.08</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.8371034889208162</v>
+        <v>-0.84</v>
       </c>
     </row>
     <row r="13">
@@ -923,10 +923,10 @@
         <v>2018</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.1525571382712453</v>
+        <v>-0.15</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.7091714615534817</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="14">
@@ -960,10 +960,10 @@
         <v>122</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1624434902151317</v>
+        <v>0.16</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.7109711889124104</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="15">
@@ -997,10 +997,10 @@
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5576669309507982</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>-1.689013478933885</v>
+        <v>-1.69</v>
       </c>
     </row>
     <row r="16">
@@ -1034,10 +1034,10 @@
         <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>1.274120939611296</v>
+        <v>1.27</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.3766171434515866</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="17">
@@ -1071,10 +1071,10 @@
         <v>2023</v>
       </c>
       <c r="J17" t="n">
-        <v>-10.31601765079053</v>
+        <v>-10.32</v>
       </c>
       <c r="K17" t="n">
-        <v>159.1287006858477</v>
+        <v>159.13</v>
       </c>
     </row>
     <row r="18">
@@ -1108,10 +1108,10 @@
         <v>12</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.01776812039989087</v>
+        <v>-0.02</v>
       </c>
       <c r="K18" t="n">
-        <v>-1.22546353045317</v>
+        <v>-1.23</v>
       </c>
     </row>
     <row r="19">
@@ -1145,10 +1145,10 @@
         <v>31</v>
       </c>
       <c r="J19" t="n">
-        <v>0.03438260315859069</v>
+        <v>0.03</v>
       </c>
       <c r="K19" t="n">
-        <v>-1.179777769403859</v>
+        <v>-1.18</v>
       </c>
     </row>
     <row r="20">
@@ -1182,10 +1182,10 @@
         <v>6</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2727320388821173</v>
+        <v>0.27</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.9367278364870999</v>
+        <v>-0.9399999999999999</v>
       </c>
     </row>
     <row r="21">
@@ -1219,10 +1219,10 @@
         <v>2022</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.09527774954980402</v>
+        <v>-0.1</v>
       </c>
       <c r="K21" t="n">
-        <v>-1.470837874825765</v>
+        <v>-1.47</v>
       </c>
     </row>
     <row r="22">
@@ -1256,10 +1256,10 @@
         <v>12</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.01611757658106506</v>
+        <v>-0.02</v>
       </c>
       <c r="K22" t="n">
-        <v>-1.215372600554929</v>
+        <v>-1.22</v>
       </c>
     </row>
     <row r="23">
@@ -1293,10 +1293,10 @@
         <v>31</v>
       </c>
       <c r="J23" t="n">
-        <v>0.02325740378663208</v>
+        <v>0.02</v>
       </c>
       <c r="K23" t="n">
-        <v>-1.176738543524942</v>
+        <v>-1.18</v>
       </c>
     </row>
     <row r="24">
@@ -1330,10 +1330,10 @@
         <v>6</v>
       </c>
       <c r="J24" t="n">
-        <v>0.04444936303314442</v>
+        <v>0.04</v>
       </c>
       <c r="K24" t="n">
-        <v>-1.243473588681407</v>
+        <v>-1.24</v>
       </c>
     </row>
     <row r="25">
@@ -1367,10 +1367,10 @@
         <v>2024</v>
       </c>
       <c r="J25" t="n">
-        <v>-7.187660341337669</v>
+        <v>-7.19</v>
       </c>
       <c r="K25" t="n">
-        <v>129.0983054440174</v>
+        <v>129.1</v>
       </c>
     </row>
     <row r="26">
@@ -1404,10 +1404,10 @@
         <v>12</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.01260263651871376</v>
+        <v>-0.01</v>
       </c>
       <c r="K26" t="n">
-        <v>-1.219441395928152</v>
+        <v>-1.22</v>
       </c>
     </row>
     <row r="27">
@@ -1441,10 +1441,10 @@
         <v>31</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0243391605746958</v>
+        <v>0.02</v>
       </c>
       <c r="K27" t="n">
-        <v>-1.175540520059992</v>
+        <v>-1.18</v>
       </c>
     </row>
     <row r="28">
@@ -1478,10 +1478,10 @@
         <v>6</v>
       </c>
       <c r="J28" t="n">
-        <v>0.07893099741117733</v>
+        <v>0.08</v>
       </c>
       <c r="K28" t="n">
-        <v>-1.065677256910117</v>
+        <v>-1.07</v>
       </c>
     </row>
     <row r="29">
@@ -1515,10 +1515,10 @@
         <v>2024</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.1038846515829908</v>
+        <v>-0.1</v>
       </c>
       <c r="K29" t="n">
-        <v>6.365679459607007</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="30">
@@ -1552,10 +1552,10 @@
         <v>12</v>
       </c>
       <c r="J30" t="n">
-        <v>0.01380246193554395</v>
+        <v>0.01</v>
       </c>
       <c r="K30" t="n">
-        <v>-1.214989522370881</v>
+        <v>-1.21</v>
       </c>
     </row>
     <row r="31">
@@ -1589,10 +1589,10 @@
         <v>31</v>
       </c>
       <c r="J31" t="n">
-        <v>0.01531080041798987</v>
+        <v>0.02</v>
       </c>
       <c r="K31" t="n">
-        <v>-1.180649290465092</v>
+        <v>-1.18</v>
       </c>
     </row>
     <row r="32">
@@ -1626,10 +1626,10 @@
         <v>6</v>
       </c>
       <c r="J32" t="n">
-        <v>0.2349838695251223</v>
+        <v>0.23</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.8300572918861837</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="33">
@@ -1663,10 +1663,10 @@
         <v>2024</v>
       </c>
       <c r="J33" t="n">
-        <v>0.07680632300198918</v>
+        <v>0.08</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.7833923980671762</v>
+        <v>-0.78</v>
       </c>
     </row>
     <row r="34">
@@ -1700,10 +1700,10 @@
         <v>12</v>
       </c>
       <c r="J34" t="n">
-        <v>0.04927279006297692</v>
+        <v>0.05</v>
       </c>
       <c r="K34" t="n">
-        <v>-1.271649562400561</v>
+        <v>-1.27</v>
       </c>
     </row>
     <row r="35">
@@ -1737,10 +1737,10 @@
         <v>31</v>
       </c>
       <c r="J35" t="n">
-        <v>0.05571318793657582</v>
+        <v>0.06</v>
       </c>
       <c r="K35" t="n">
-        <v>-1.156379166139648</v>
+        <v>-1.16</v>
       </c>
     </row>
     <row r="36">
@@ -1774,10 +1774,10 @@
         <v>4</v>
       </c>
       <c r="J36" t="n">
-        <v>0.01268265619854759</v>
+        <v>0.01</v>
       </c>
       <c r="K36" t="n">
-        <v>-1.390975383929667</v>
+        <v>-1.39</v>
       </c>
     </row>
   </sheetData>

--- a/[ML]_Project_EDAOutputs_Group33/Tables/Descriptive_Statistics_Numerical.xlsx
+++ b/[ML]_Project_EDAOutputs_Group33/Tables/Descriptive_Statistics_Numerical.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -895,888 +895,962 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Birth Year Clean</t>
+          <t>Accident Date Binary</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>543022</v>
+        <v>574026</v>
       </c>
       <c r="C13" t="n">
-        <v>1977.81921358619</v>
+        <v>0.006426538170744879</v>
       </c>
       <c r="D13" t="n">
-        <v>13.84140515856041</v>
+        <v>0.07990775244890708</v>
       </c>
       <c r="E13" t="n">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1966</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1978</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1989</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>2018</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.15</v>
+        <v>12.35</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.71</v>
+        <v>150.61</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Age at Injury Clean</t>
+          <t>C-2 Date Binary</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>571840</v>
+        <v>574026</v>
       </c>
       <c r="C14" t="n">
-        <v>42.59213766088416</v>
+        <v>0.02536470473462875</v>
       </c>
       <c r="D14" t="n">
-        <v>13.75357590804725</v>
+        <v>0.1572303391689236</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>122</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0.16</v>
+        <v>6.04</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.71</v>
+        <v>34.45</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Weekly Wage Reported</t>
+          <t>Birth Year Clean</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>574026</v>
+        <v>543022</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3657064314159986</v>
+        <v>1977.81921358619</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4816281153937366</v>
+        <v>13.84140515856041</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1966</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1978</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>1989</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>2018</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5600000000000001</v>
+        <v>-0.15</v>
       </c>
       <c r="K15" t="n">
-        <v>-1.69</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>IME-4 Reported</t>
+          <t>Age at Injury Clean</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>574026</v>
+        <v>571840</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2313536320654465</v>
+        <v>42.59213766088416</v>
       </c>
       <c r="D16" t="n">
-        <v>0.421698279330577</v>
+        <v>13.75357590804725</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="J16" t="n">
-        <v>1.27</v>
+        <v>0.16</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.38</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Accident Date Year</t>
+          <t>Weekly Wage Reported</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>570337</v>
+        <v>574026</v>
       </c>
       <c r="C17" t="n">
-        <v>2020.827849148837</v>
+        <v>0.3657064314159986</v>
       </c>
       <c r="D17" t="n">
-        <v>1.86218904268881</v>
+        <v>0.4816281153937366</v>
       </c>
       <c r="E17" t="n">
-        <v>1961</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2020</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2021</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2022</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>2023</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>-10.32</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>159.13</v>
+        <v>-1.69</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Accident Date Month</t>
+          <t>IME-4 Reported</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>570337</v>
+        <v>574026</v>
       </c>
       <c r="C18" t="n">
-        <v>6.493787006629414</v>
+        <v>0.2313536320654465</v>
       </c>
       <c r="D18" t="n">
-        <v>3.466308794261195</v>
+        <v>0.421698279330577</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.02</v>
+        <v>1.27</v>
       </c>
       <c r="K18" t="n">
-        <v>-1.23</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Accident Date Day</t>
+          <t>Accident Date Year</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>570337</v>
       </c>
       <c r="C19" t="n">
-        <v>15.51577926734545</v>
+        <v>2020.827849148837</v>
       </c>
       <c r="D19" t="n">
-        <v>8.785319208409398</v>
+        <v>1.86218904268881</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>1961</v>
       </c>
       <c r="F19" t="n">
-        <v>8</v>
+        <v>2020</v>
       </c>
       <c r="G19" t="n">
-        <v>15</v>
+        <v>2021</v>
       </c>
       <c r="H19" t="n">
-        <v>23</v>
+        <v>2022</v>
       </c>
       <c r="I19" t="n">
-        <v>31</v>
+        <v>2023</v>
       </c>
       <c r="J19" t="n">
-        <v>0.03</v>
+        <v>-10.32</v>
       </c>
       <c r="K19" t="n">
-        <v>-1.18</v>
+        <v>159.13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Accident Date Weekday</t>
+          <t>Accident Date Month</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>570337</v>
       </c>
       <c r="C20" t="n">
-        <v>2.503007870785167</v>
+        <v>6.493787006629414</v>
       </c>
       <c r="D20" t="n">
-        <v>1.813755311452208</v>
+        <v>3.466308794261195</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I20" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J20" t="n">
-        <v>0.27</v>
+        <v>-0.02</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-1.23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Assembly Date Year</t>
+          <t>Accident Date Day</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>574026</v>
+        <v>570337</v>
       </c>
       <c r="C21" t="n">
-        <v>2021.052128300809</v>
+        <v>15.51577926734545</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8102573599984065</v>
+        <v>8.785319208409398</v>
       </c>
       <c r="E21" t="n">
-        <v>2020</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>2020</v>
+        <v>8</v>
       </c>
       <c r="G21" t="n">
-        <v>2021</v>
+        <v>15</v>
       </c>
       <c r="H21" t="n">
-        <v>2022</v>
+        <v>23</v>
       </c>
       <c r="I21" t="n">
-        <v>2022</v>
+        <v>31</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.1</v>
+        <v>0.03</v>
       </c>
       <c r="K21" t="n">
-        <v>-1.47</v>
+        <v>-1.18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Assembly Date Month</t>
+          <t>Accident Date Weekday</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>574026</v>
+        <v>570337</v>
       </c>
       <c r="C22" t="n">
-        <v>6.489552738029288</v>
+        <v>2.503007870785167</v>
       </c>
       <c r="D22" t="n">
-        <v>3.443521261591951</v>
+        <v>1.813755311452208</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.02</v>
+        <v>0.27</v>
       </c>
       <c r="K22" t="n">
-        <v>-1.22</v>
+        <v>-0.9399999999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Assembly Date Day</t>
+          <t>Assembly Date Year</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>574026</v>
       </c>
       <c r="C23" t="n">
-        <v>15.6397009891538</v>
+        <v>2021.052128300809</v>
       </c>
       <c r="D23" t="n">
-        <v>8.734702329114487</v>
+        <v>0.8102573599984065</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>2020</v>
       </c>
       <c r="F23" t="n">
-        <v>8</v>
+        <v>2020</v>
       </c>
       <c r="G23" t="n">
-        <v>15</v>
+        <v>2021</v>
       </c>
       <c r="H23" t="n">
-        <v>23</v>
+        <v>2022</v>
       </c>
       <c r="I23" t="n">
-        <v>31</v>
+        <v>2022</v>
       </c>
       <c r="J23" t="n">
-        <v>0.02</v>
+        <v>-0.1</v>
       </c>
       <c r="K23" t="n">
-        <v>-1.18</v>
+        <v>-1.47</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Assembly Date Weekday</t>
+          <t>Assembly Date Month</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>574026</v>
       </c>
       <c r="C24" t="n">
-        <v>2.009391560661015</v>
+        <v>6.489552738029288</v>
       </c>
       <c r="D24" t="n">
-        <v>1.437956518708118</v>
+        <v>3.443521261591951</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I24" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J24" t="n">
-        <v>0.04</v>
+        <v>-0.02</v>
       </c>
       <c r="K24" t="n">
-        <v>-1.24</v>
+        <v>-1.22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>C-2 Date Year</t>
+          <t>Assembly Date Day</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>559466</v>
+        <v>574026</v>
       </c>
       <c r="C25" t="n">
-        <v>2021.044907107849</v>
+        <v>15.6397009891538</v>
       </c>
       <c r="D25" t="n">
-        <v>1.076153318635154</v>
+        <v>8.734702329114487</v>
       </c>
       <c r="E25" t="n">
-        <v>1996</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>2020</v>
+        <v>8</v>
       </c>
       <c r="G25" t="n">
-        <v>2021</v>
+        <v>15</v>
       </c>
       <c r="H25" t="n">
-        <v>2022</v>
+        <v>23</v>
       </c>
       <c r="I25" t="n">
-        <v>2024</v>
+        <v>31</v>
       </c>
       <c r="J25" t="n">
-        <v>-7.19</v>
+        <v>0.02</v>
       </c>
       <c r="K25" t="n">
-        <v>129.1</v>
+        <v>-1.18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>C-2 Date Month</t>
+          <t>Assembly Date Weekday</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>559466</v>
+        <v>574026</v>
       </c>
       <c r="C26" t="n">
-        <v>6.478885222694498</v>
+        <v>2.009391560661015</v>
       </c>
       <c r="D26" t="n">
-        <v>3.446772558741731</v>
+        <v>1.437956518708118</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2</v>
+      </c>
+      <c r="H26" t="n">
         <v>3</v>
       </c>
-      <c r="G26" t="n">
-        <v>7</v>
-      </c>
-      <c r="H26" t="n">
-        <v>9</v>
-      </c>
       <c r="I26" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.01</v>
+        <v>0.04</v>
       </c>
       <c r="K26" t="n">
-        <v>-1.22</v>
+        <v>-1.24</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>C-2 Date Day</t>
+          <t>C-2 Date Year</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>559466</v>
       </c>
       <c r="C27" t="n">
-        <v>15.65567344575005</v>
+        <v>2021.044907107849</v>
       </c>
       <c r="D27" t="n">
-        <v>8.711809147944395</v>
+        <v>1.076153318635154</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="F27" t="n">
-        <v>8</v>
+        <v>2020</v>
       </c>
       <c r="G27" t="n">
-        <v>16</v>
+        <v>2021</v>
       </c>
       <c r="H27" t="n">
-        <v>23</v>
+        <v>2022</v>
       </c>
       <c r="I27" t="n">
-        <v>31</v>
+        <v>2024</v>
       </c>
       <c r="J27" t="n">
-        <v>0.02</v>
+        <v>-7.19</v>
       </c>
       <c r="K27" t="n">
-        <v>-1.18</v>
+        <v>129.1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>C-2 Date Weekday</t>
+          <t>C-2 Date Month</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>559466</v>
       </c>
       <c r="C28" t="n">
-        <v>2.14702055174041</v>
+        <v>6.478885222694498</v>
       </c>
       <c r="D28" t="n">
-        <v>1.472989493591604</v>
+        <v>3.446772558741731</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I28" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J28" t="n">
-        <v>0.08</v>
+        <v>-0.01</v>
       </c>
       <c r="K28" t="n">
-        <v>-1.07</v>
+        <v>-1.22</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>C-3 Date Year</t>
+          <t>C-2 Date Day</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>187245</v>
+        <v>559466</v>
       </c>
       <c r="C29" t="n">
-        <v>2021.075430585596</v>
+        <v>15.65567344575005</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8863640864573712</v>
+        <v>8.711809147944395</v>
       </c>
       <c r="E29" t="n">
-        <v>1992</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>2020</v>
+        <v>8</v>
       </c>
       <c r="G29" t="n">
-        <v>2021</v>
+        <v>16</v>
       </c>
       <c r="H29" t="n">
-        <v>2022</v>
+        <v>23</v>
       </c>
       <c r="I29" t="n">
-        <v>2024</v>
+        <v>31</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.1</v>
+        <v>0.02</v>
       </c>
       <c r="K29" t="n">
-        <v>6.37</v>
+        <v>-1.18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>C-3 Date Month</t>
+          <t>C-2 Date Weekday</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>187245</v>
+        <v>559466</v>
       </c>
       <c r="C30" t="n">
-        <v>6.44209992256135</v>
+        <v>2.14702055174041</v>
       </c>
       <c r="D30" t="n">
-        <v>3.431049739855711</v>
+        <v>1.472989493591604</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" t="n">
         <v>3</v>
       </c>
-      <c r="G30" t="n">
+      <c r="I30" t="n">
         <v>6</v>
       </c>
-      <c r="H30" t="n">
-        <v>9</v>
-      </c>
-      <c r="I30" t="n">
-        <v>12</v>
-      </c>
       <c r="J30" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="K30" t="n">
-        <v>-1.21</v>
+        <v>-1.07</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>C-3 Date Day</t>
+          <t>C-3 Date Year</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>187245</v>
       </c>
       <c r="C31" t="n">
-        <v>15.68225052738391</v>
+        <v>2021.075430585596</v>
       </c>
       <c r="D31" t="n">
-        <v>8.745459934667716</v>
+        <v>0.8863640864573712</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="F31" t="n">
-        <v>8</v>
+        <v>2020</v>
       </c>
       <c r="G31" t="n">
-        <v>16</v>
+        <v>2021</v>
       </c>
       <c r="H31" t="n">
-        <v>23</v>
+        <v>2022</v>
       </c>
       <c r="I31" t="n">
-        <v>31</v>
+        <v>2024</v>
       </c>
       <c r="J31" t="n">
-        <v>0.02</v>
+        <v>-0.1</v>
       </c>
       <c r="K31" t="n">
-        <v>-1.18</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>C-3 Date Weekday</t>
+          <t>C-3 Date Month</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>187245</v>
       </c>
       <c r="C32" t="n">
-        <v>2.031803252423296</v>
+        <v>6.44209992256135</v>
       </c>
       <c r="D32" t="n">
-        <v>1.49500105478597</v>
+        <v>3.431049739855711</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I32" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J32" t="n">
-        <v>0.23</v>
+        <v>0.01</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.83</v>
+        <v>-1.21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>First Hearing Date Year</t>
+          <t>C-3 Date Day</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>150798</v>
+        <v>187245</v>
       </c>
       <c r="C33" t="n">
-        <v>2021.719551983448</v>
+        <v>15.68225052738391</v>
       </c>
       <c r="D33" t="n">
-        <v>1.058544664580158</v>
+        <v>8.745459934667716</v>
       </c>
       <c r="E33" t="n">
-        <v>2020</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>2021</v>
+        <v>8</v>
       </c>
       <c r="G33" t="n">
-        <v>2022</v>
+        <v>16</v>
       </c>
       <c r="H33" t="n">
-        <v>2023</v>
+        <v>23</v>
       </c>
       <c r="I33" t="n">
-        <v>2024</v>
+        <v>31</v>
       </c>
       <c r="J33" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.78</v>
+        <v>-1.18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>First Hearing Date Month</t>
+          <t>C-3 Date Weekday</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>150798</v>
+        <v>187245</v>
       </c>
       <c r="C34" t="n">
-        <v>6.455039191501213</v>
+        <v>2.031803252423296</v>
       </c>
       <c r="D34" t="n">
-        <v>3.508112600875816</v>
+        <v>1.49500105478597</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2</v>
+      </c>
+      <c r="H34" t="n">
         <v>3</v>
       </c>
-      <c r="G34" t="n">
+      <c r="I34" t="n">
         <v>6</v>
       </c>
-      <c r="H34" t="n">
-        <v>10</v>
-      </c>
-      <c r="I34" t="n">
-        <v>12</v>
-      </c>
       <c r="J34" t="n">
-        <v>0.05</v>
+        <v>0.23</v>
       </c>
       <c r="K34" t="n">
-        <v>-1.27</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>First Hearing Date Day</t>
+          <t>First Hearing Date Year</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>150798</v>
       </c>
       <c r="C35" t="n">
-        <v>15.4299659146673</v>
+        <v>2021.719551983448</v>
       </c>
       <c r="D35" t="n">
-        <v>8.735360162708789</v>
+        <v>1.058544664580158</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>2020</v>
       </c>
       <c r="F35" t="n">
-        <v>8</v>
+        <v>2021</v>
       </c>
       <c r="G35" t="n">
-        <v>15</v>
+        <v>2022</v>
       </c>
       <c r="H35" t="n">
-        <v>23</v>
+        <v>2023</v>
       </c>
       <c r="I35" t="n">
-        <v>31</v>
+        <v>2024</v>
       </c>
       <c r="J35" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="K35" t="n">
-        <v>-1.16</v>
+        <v>-0.78</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>First Hearing Date Weekday</t>
+          <t>First Hearing Date Month</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>150798</v>
       </c>
       <c r="C36" t="n">
+        <v>6.455039191501213</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3.508112600875816</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3</v>
+      </c>
+      <c r="G36" t="n">
+        <v>6</v>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+      <c r="I36" t="n">
+        <v>12</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-1.27</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>First Hearing Date Day</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>150798</v>
+      </c>
+      <c r="C37" t="n">
+        <v>15.4299659146673</v>
+      </c>
+      <c r="D37" t="n">
+        <v>8.735360162708789</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" t="n">
+        <v>8</v>
+      </c>
+      <c r="G37" t="n">
+        <v>15</v>
+      </c>
+      <c r="H37" t="n">
+        <v>23</v>
+      </c>
+      <c r="I37" t="n">
+        <v>31</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-1.16</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>First Hearing Date Weekday</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>150798</v>
+      </c>
+      <c r="C38" t="n">
         <v>2.016850356105519</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D38" t="n">
         <v>1.450602399305251</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="n">
         <v>2</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H38" t="n">
         <v>3</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I38" t="n">
         <v>4</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J38" t="n">
         <v>0.01</v>
       </c>
-      <c r="K36" t="n">
+      <c r="K38" t="n">
         <v>-1.39</v>
       </c>
     </row>

--- a/[ML]_Project_EDAOutputs_Group33/Tables/Descriptive_Statistics_Numerical.xlsx
+++ b/[ML]_Project_EDAOutputs_Group33/Tables/Descriptive_Statistics_Numerical.xlsx
@@ -488,149 +488,149 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Birth Year Clean</t>
+          <t>Accident Date Month</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>543022</v>
+        <v>570337</v>
       </c>
       <c r="C2" t="n">
-        <v>1977.81921358619</v>
+        <v>6.493787006629414</v>
       </c>
       <c r="D2" t="n">
-        <v>13.84140515856041</v>
+        <v>3.466308794261195</v>
       </c>
       <c r="E2" t="n">
-        <v>1900</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>1966</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>1978</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>1989</v>
+        <v>9</v>
       </c>
       <c r="I2" t="n">
-        <v>2018</v>
+        <v>12</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.15</v>
+        <v>-0.02</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.71</v>
+        <v>-1.23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Assembly Date Weekday</t>
+          <t>C-2 Date Day</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>574026</v>
+        <v>559466</v>
       </c>
       <c r="C3" t="n">
-        <v>2.009391560661015</v>
+        <v>15.65567344575005</v>
       </c>
       <c r="D3" t="n">
-        <v>1.437956518708118</v>
+        <v>8.711809147944395</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="K3" t="n">
-        <v>-1.24</v>
+        <v>-1.18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>First Hearing Date Day</t>
+          <t>C-2 Date Month</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150798</v>
+        <v>559466</v>
       </c>
       <c r="C4" t="n">
-        <v>15.4299659146673</v>
+        <v>6.478885222694498</v>
       </c>
       <c r="D4" t="n">
-        <v>8.735360162708789</v>
+        <v>3.446772558741731</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H4" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="I4" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06</v>
+        <v>-0.01</v>
       </c>
       <c r="K4" t="n">
-        <v>-1.16</v>
+        <v>-1.22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>First Hearing Date Weekday</t>
+          <t>First Hearing Date Month</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>150798</v>
       </c>
       <c r="C5" t="n">
-        <v>2.016850356105519</v>
+        <v>6.455039191501213</v>
       </c>
       <c r="D5" t="n">
-        <v>1.450602399305251</v>
+        <v>3.508112600875816</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="K5" t="n">
-        <v>-1.39</v>
+        <v>-1.27</v>
       </c>
     </row>
     <row r="6">
@@ -673,75 +673,75 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Average Weekly Wage</t>
+          <t>Accident Date Day</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>545375</v>
+        <v>570337</v>
       </c>
       <c r="C7" t="n">
-        <v>491.0883206784323</v>
+        <v>15.51577926734545</v>
       </c>
       <c r="D7" t="n">
-        <v>6092.918120376165</v>
+        <v>8.785319208409398</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H7" t="n">
-        <v>841</v>
+        <v>23</v>
       </c>
       <c r="I7" t="n">
-        <v>2828079</v>
+        <v>31</v>
       </c>
       <c r="J7" t="n">
-        <v>378.98</v>
+        <v>0.03</v>
       </c>
       <c r="K7" t="n">
-        <v>160021.04</v>
+        <v>-1.18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>C-3 Date Month</t>
+          <t>Assembly Date Weekday</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>187245</v>
+        <v>574026</v>
       </c>
       <c r="C8" t="n">
-        <v>6.44209992256135</v>
+        <v>2.009391560661015</v>
       </c>
       <c r="D8" t="n">
-        <v>3.431049739855711</v>
+        <v>1.437956518708118</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="n">
         <v>3</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>6</v>
       </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-      <c r="I8" t="n">
-        <v>12</v>
-      </c>
       <c r="J8" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="K8" t="n">
-        <v>-1.21</v>
+        <v>-1.24</v>
       </c>
     </row>
     <row r="9">
@@ -784,427 +784,427 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>C-3 Date Weekday</t>
+          <t>C-3 Date Day</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>187245</v>
       </c>
       <c r="C10" t="n">
-        <v>2.031803252423296</v>
+        <v>15.68225052738391</v>
       </c>
       <c r="D10" t="n">
-        <v>1.49500105478597</v>
+        <v>8.745459934667716</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="I10" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="J10" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.83</v>
+        <v>-1.18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Assembly Date Day</t>
+          <t>Assembly Date Year</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>574026</v>
       </c>
       <c r="C11" t="n">
-        <v>15.6397009891538</v>
+        <v>2021.052128300809</v>
       </c>
       <c r="D11" t="n">
-        <v>8.734702329114487</v>
+        <v>0.8102573599984065</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2020</v>
       </c>
       <c r="F11" t="n">
-        <v>8</v>
+        <v>2020</v>
       </c>
       <c r="G11" t="n">
-        <v>15</v>
+        <v>2021</v>
       </c>
       <c r="H11" t="n">
-        <v>23</v>
+        <v>2022</v>
       </c>
       <c r="I11" t="n">
-        <v>31</v>
+        <v>2022</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02</v>
+        <v>-0.1</v>
       </c>
       <c r="K11" t="n">
-        <v>-1.18</v>
+        <v>-1.47</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>C-2 Date Month</t>
+          <t>IME-4 Count</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>559466</v>
+        <v>132803</v>
       </c>
       <c r="C12" t="n">
-        <v>6.478885222694498</v>
+        <v>3.20733718364796</v>
       </c>
       <c r="D12" t="n">
-        <v>3.446772558741731</v>
+        <v>2.832303341736897</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.01</v>
+        <v>2.59</v>
       </c>
       <c r="K12" t="n">
-        <v>-1.22</v>
+        <v>13.21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Assembly Date Month</t>
+          <t>Number of Dependents</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>574026</v>
       </c>
       <c r="C13" t="n">
-        <v>6.489552738029288</v>
+        <v>3.006558936354799</v>
       </c>
       <c r="D13" t="n">
-        <v>3.443521261591951</v>
+        <v>2.000801331390098</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
         <v>3</v>
       </c>
-      <c r="G13" t="n">
-        <v>7</v>
-      </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I13" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.02</v>
+        <v>-0</v>
       </c>
       <c r="K13" t="n">
-        <v>-1.22</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>C-2 Date Day</t>
+          <t>Accident Date Year</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>559466</v>
+        <v>570337</v>
       </c>
       <c r="C14" t="n">
-        <v>15.65567344575005</v>
+        <v>2020.827849148837</v>
       </c>
       <c r="D14" t="n">
-        <v>8.711809147944395</v>
+        <v>1.86218904268881</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>1961</v>
       </c>
       <c r="F14" t="n">
-        <v>8</v>
+        <v>2020</v>
       </c>
       <c r="G14" t="n">
-        <v>16</v>
+        <v>2021</v>
       </c>
       <c r="H14" t="n">
-        <v>23</v>
+        <v>2022</v>
       </c>
       <c r="I14" t="n">
-        <v>31</v>
+        <v>2023</v>
       </c>
       <c r="J14" t="n">
-        <v>0.02</v>
+        <v>-10.32</v>
       </c>
       <c r="K14" t="n">
-        <v>-1.18</v>
+        <v>159.13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Age at Injury</t>
+          <t>C-3 Date Month</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>574026</v>
+        <v>187245</v>
       </c>
       <c r="C15" t="n">
-        <v>42.11427008532714</v>
+        <v>6.44209992256135</v>
       </c>
       <c r="D15" t="n">
-        <v>14.25643197476343</v>
+        <v>3.431049739855711</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="H15" t="n">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="I15" t="n">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.04</v>
+        <v>0.01</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.43</v>
+        <v>-1.21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Accident Date Day</t>
+          <t>Age at Injury</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>570337</v>
+        <v>574026</v>
       </c>
       <c r="C16" t="n">
-        <v>15.51577926734545</v>
+        <v>42.11427008532714</v>
       </c>
       <c r="D16" t="n">
-        <v>8.785319208409398</v>
+        <v>14.25643197476343</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="G16" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="H16" t="n">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="I16" t="n">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="J16" t="n">
-        <v>0.03</v>
+        <v>-0.04</v>
       </c>
       <c r="K16" t="n">
-        <v>-1.18</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Age at Injury Clean</t>
+          <t>C-3 Date Year</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>571840</v>
+        <v>187245</v>
       </c>
       <c r="C17" t="n">
-        <v>42.59213766088416</v>
+        <v>2021.075430585596</v>
       </c>
       <c r="D17" t="n">
-        <v>13.75357590804725</v>
+        <v>0.8863640864573712</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="F17" t="n">
-        <v>31</v>
+        <v>2020</v>
       </c>
       <c r="G17" t="n">
-        <v>42</v>
+        <v>2021</v>
       </c>
       <c r="H17" t="n">
-        <v>54</v>
+        <v>2022</v>
       </c>
       <c r="I17" t="n">
-        <v>122</v>
+        <v>2024</v>
       </c>
       <c r="J17" t="n">
-        <v>0.16</v>
+        <v>-0.1</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.71</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>C-2 Date Weekday</t>
+          <t>Average Weekly Wage</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>559466</v>
+        <v>545375</v>
       </c>
       <c r="C18" t="n">
-        <v>2.14702055174041</v>
+        <v>491.0883206784323</v>
       </c>
       <c r="D18" t="n">
-        <v>1.472989493591604</v>
+        <v>6092.918120376165</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>841</v>
       </c>
       <c r="I18" t="n">
-        <v>6</v>
+        <v>2828079</v>
       </c>
       <c r="J18" t="n">
-        <v>0.08</v>
+        <v>378.98</v>
       </c>
       <c r="K18" t="n">
-        <v>-1.07</v>
+        <v>160021.04</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Number of Dependents</t>
+          <t>First Hearing Date Year</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>574026</v>
+        <v>150798</v>
       </c>
       <c r="C19" t="n">
-        <v>3.006558936354799</v>
+        <v>2021.719551983448</v>
       </c>
       <c r="D19" t="n">
-        <v>2.000801331390098</v>
+        <v>1.058544664580158</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>2020</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>2021</v>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>2022</v>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>2023</v>
       </c>
       <c r="I19" t="n">
-        <v>6</v>
+        <v>2024</v>
       </c>
       <c r="J19" t="n">
-        <v>-0</v>
+        <v>0.08</v>
       </c>
       <c r="K19" t="n">
-        <v>-1.25</v>
+        <v>-0.78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>C-3 Date Day</t>
+          <t>Age at Injury Clean</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>187245</v>
+        <v>571840</v>
       </c>
       <c r="C20" t="n">
-        <v>15.68225052738391</v>
+        <v>42.59213766088416</v>
       </c>
       <c r="D20" t="n">
-        <v>8.745459934667716</v>
+        <v>13.75357590804725</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="G20" t="n">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="H20" t="n">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="I20" t="n">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="J20" t="n">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="K20" t="n">
-        <v>-1.18</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>IME-4 Count</t>
+          <t>C-3 Date Weekday</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>132803</v>
+        <v>187245</v>
       </c>
       <c r="C21" t="n">
-        <v>3.20733718364796</v>
+        <v>2.031803252423296</v>
       </c>
       <c r="D21" t="n">
-        <v>2.832303341736897</v>
+        <v>1.49500105478597</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
@@ -1213,106 +1213,106 @@
         <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="J21" t="n">
-        <v>2.59</v>
+        <v>0.23</v>
       </c>
       <c r="K21" t="n">
-        <v>13.21</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>First Hearing Date Year</t>
+          <t>Assembly Date Day</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>150798</v>
+        <v>574026</v>
       </c>
       <c r="C22" t="n">
-        <v>2021.719551983448</v>
+        <v>15.6397009891538</v>
       </c>
       <c r="D22" t="n">
-        <v>1.058544664580158</v>
+        <v>8.734702329114487</v>
       </c>
       <c r="E22" t="n">
-        <v>2020</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>2021</v>
+        <v>8</v>
       </c>
       <c r="G22" t="n">
-        <v>2022</v>
+        <v>15</v>
       </c>
       <c r="H22" t="n">
-        <v>2023</v>
+        <v>23</v>
       </c>
       <c r="I22" t="n">
-        <v>2024</v>
+        <v>31</v>
       </c>
       <c r="J22" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.78</v>
+        <v>-1.18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>First Hearing Date Month</t>
+          <t>Birth Year Clean</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>150798</v>
+        <v>543022</v>
       </c>
       <c r="C23" t="n">
-        <v>6.455039191501213</v>
+        <v>1977.81921358619</v>
       </c>
       <c r="D23" t="n">
-        <v>3.508112600875816</v>
+        <v>13.84140515856041</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>1900</v>
       </c>
       <c r="F23" t="n">
-        <v>3</v>
+        <v>1966</v>
       </c>
       <c r="G23" t="n">
-        <v>6</v>
+        <v>1978</v>
       </c>
       <c r="H23" t="n">
-        <v>10</v>
+        <v>1989</v>
       </c>
       <c r="I23" t="n">
-        <v>12</v>
+        <v>2018</v>
       </c>
       <c r="J23" t="n">
-        <v>0.05</v>
+        <v>-0.15</v>
       </c>
       <c r="K23" t="n">
-        <v>-1.27</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Accident Date Weekday</t>
+          <t>C-2 Date Weekday</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>570337</v>
+        <v>559466</v>
       </c>
       <c r="C24" t="n">
-        <v>2.503007870785167</v>
+        <v>2.14702055174041</v>
       </c>
       <c r="D24" t="n">
-        <v>1.813755311452208</v>
+        <v>1.472989493591604</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1324,164 +1324,164 @@
         <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
         <v>6</v>
       </c>
       <c r="J24" t="n">
-        <v>0.27</v>
+        <v>0.08</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-1.07</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>C-3 Date Year</t>
+          <t>Assembly Date Month</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>187245</v>
+        <v>574026</v>
       </c>
       <c r="C25" t="n">
-        <v>2021.075430585596</v>
+        <v>6.489552738029288</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8863640864573712</v>
+        <v>3.443521261591951</v>
       </c>
       <c r="E25" t="n">
-        <v>1992</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>2020</v>
+        <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>2021</v>
+        <v>7</v>
       </c>
       <c r="H25" t="n">
-        <v>2022</v>
+        <v>9</v>
       </c>
       <c r="I25" t="n">
-        <v>2024</v>
+        <v>12</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.1</v>
+        <v>-0.02</v>
       </c>
       <c r="K25" t="n">
-        <v>6.37</v>
+        <v>-1.22</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Accident Date Year</t>
+          <t>Accident Date Weekday</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>570337</v>
       </c>
       <c r="C26" t="n">
-        <v>2020.827849148837</v>
+        <v>2.503007870785167</v>
       </c>
       <c r="D26" t="n">
-        <v>1.86218904268881</v>
+        <v>1.813755311452208</v>
       </c>
       <c r="E26" t="n">
-        <v>1961</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>2020</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>2021</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
-        <v>2022</v>
+        <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>2023</v>
+        <v>6</v>
       </c>
       <c r="J26" t="n">
-        <v>-10.32</v>
+        <v>0.27</v>
       </c>
       <c r="K26" t="n">
-        <v>159.13</v>
+        <v>-0.9399999999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Assembly Date Year</t>
+          <t>First Hearing Date Weekday</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>574026</v>
+        <v>150798</v>
       </c>
       <c r="C27" t="n">
-        <v>2021.052128300809</v>
+        <v>2.016850356105519</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8102573599984065</v>
+        <v>1.450602399305251</v>
       </c>
       <c r="E27" t="n">
-        <v>2020</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>2020</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>2021</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
-        <v>2022</v>
+        <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>2022</v>
+        <v>4</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.1</v>
+        <v>0.01</v>
       </c>
       <c r="K27" t="n">
-        <v>-1.47</v>
+        <v>-1.39</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Accident Date Month</t>
+          <t>First Hearing Date Day</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>570337</v>
+        <v>150798</v>
       </c>
       <c r="C28" t="n">
-        <v>6.493787006629414</v>
+        <v>15.4299659146673</v>
       </c>
       <c r="D28" t="n">
-        <v>3.466308794261195</v>
+        <v>8.735360162708789</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G28" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H28" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I28" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.02</v>
+        <v>0.06</v>
       </c>
       <c r="K28" t="n">
-        <v>-1.23</v>
+        <v>-1.16</v>
       </c>
     </row>
   </sheetData>
